--- a/SUBS 2022 V1.xlsx
+++ b/SUBS 2022 V1.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://businesssolutionsassessoria.sharepoint.com/sites/BusinessSolutions/Shared Documents/Sub Contractor Database/2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12158\Desktop\BSA_APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="950" documentId="8_{4DF2A642-E224-49FA-B1D7-17AF384BA6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C935CE36-F2FB-4367-B2D4-6B74D241C6A2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F888B8-29C3-49E8-9271-E72009FBD18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-24330" yWindow="-1905" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{2A0FD75C-68DB-4F3C-9883-AD7F145D6699}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A0FD75C-68DB-4F3C-9883-AD7F145D6699}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sheet1 (2)'!$A$1:$G$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1 (2)'!$A$1:$G$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="218">
   <si>
     <t>SUB CONTRACTORS NAME</t>
   </si>
@@ -689,6 +689,9 @@
   </si>
   <si>
     <t>61-1833433</t>
+  </si>
+  <si>
+    <t>AMOUNT PAID</t>
   </si>
 </sst>
 </file>
@@ -805,7 +808,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -863,23 +866,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1202,29 +1189,1328 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5404BEA5-A0E6-40E3-BC5A-D047BFA188D2}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="54.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" style="32" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="26">
+        <v>15108</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="28"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="28"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="28"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="26">
+        <v>19111</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="26">
+        <v>19152</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="28"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="26">
+        <v>19159</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="28"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="26">
+        <v>19111</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" s="28"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="28"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="28"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="28"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="28"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="G32" s="28"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="28"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="26">
+        <v>19152</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="28"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="G35" s="28"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="28"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="G38" s="28"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" s="28"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="28"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="28"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G42" s="28"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G43" s="28"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="28"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="G45" s="28"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="F46" s="27"/>
+      <c r="G46" s="28"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="G47" s="28"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="G48" s="28"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="26">
+        <v>19152</v>
+      </c>
+      <c r="F49" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="G49" s="28"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" s="28"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="G51" s="28"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G52" s="28"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G53" s="28"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54" s="28"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="26">
+        <v>19115</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="G55" s="28"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="G56" s="28"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G57" s="28"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="F58" s="27"/>
+      <c r="G58" s="28"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="26">
+        <v>19135</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="G59" s="28"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="28"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="G61" s="28"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="G62" s="28"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G63" s="28"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="G64" s="28"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="28"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="G66" s="28"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G67" s="28"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G67" xr:uid="{5404BEA5-A0E6-40E3-BC5A-D047BFA188D2}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G68">
+      <sortCondition ref="A1:A67"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="41" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4FC1A84-A37F-47C6-9E73-8C0F575C4FA8}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.26953125" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
-    <col min="4" max="4" width="5.1796875" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" customWidth="1"/>
     <col min="5" max="5" width="8" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="32.453125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +2533,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>133</v>
       </c>
@@ -1268,7 +2554,7 @@
       </c>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>100</v>
       </c>
@@ -1289,7 +2575,7 @@
       </c>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>66</v>
       </c>
@@ -1310,7 +2596,7 @@
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>28</v>
       </c>
@@ -1331,7 +2617,7 @@
       </c>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>134</v>
       </c>
@@ -1352,7 +2638,7 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>82</v>
       </c>
@@ -1373,7 +2659,7 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
@@ -1394,7 +2680,7 @@
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>61</v>
       </c>
@@ -1416,7 +2702,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>77</v>
       </c>
@@ -1438,7 +2724,7 @@
       <c r="G10" s="14"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>137</v>
       </c>
@@ -1460,7 +2746,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>53</v>
       </c>
@@ -1482,7 +2768,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>63</v>
       </c>
@@ -1504,7 +2790,7 @@
       <c r="G13" s="14"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>140</v>
       </c>
@@ -1524,7 +2810,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>86</v>
       </c>
@@ -1546,7 +2832,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>34</v>
       </c>
@@ -1567,7 +2853,7 @@
       </c>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>89</v>
       </c>
@@ -1588,7 +2874,7 @@
       </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>141</v>
       </c>
@@ -1609,7 +2895,7 @@
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>39</v>
       </c>
@@ -1631,7 +2917,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>14</v>
       </c>
@@ -1653,7 +2939,7 @@
       <c r="G20" s="14"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>115</v>
       </c>
@@ -1674,7 +2960,7 @@
       </c>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>58</v>
       </c>
@@ -1695,7 +2981,7 @@
       </c>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>44</v>
       </c>
@@ -1717,7 +3003,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>71</v>
       </c>
@@ -1739,7 +3025,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>21</v>
       </c>
@@ -1761,7 +3047,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>147</v>
       </c>
@@ -1775,7 +3061,7 @@
       <c r="G26" s="14"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>19</v>
       </c>
@@ -1796,7 +3082,7 @@
       </c>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>105</v>
       </c>
@@ -1817,7 +3103,7 @@
       </c>
       <c r="G28" s="14"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>120</v>
       </c>
@@ -1839,7 +3125,7 @@
       <c r="G29" s="14"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>93</v>
       </c>
@@ -1861,7 +3147,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>96</v>
       </c>
@@ -1883,7 +3169,7 @@
       <c r="G31" s="14"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>48</v>
       </c>
@@ -1904,7 +3190,7 @@
       </c>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>142</v>
       </c>
@@ -1925,7 +3211,7 @@
       </c>
       <c r="G33" s="14"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>143</v>
       </c>
@@ -1936,7 +3222,7 @@
       <c r="F34" s="13"/>
       <c r="G34" s="14"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>125</v>
       </c>
@@ -1957,7 +3243,7 @@
       </c>
       <c r="G35" s="14"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>74</v>
       </c>
@@ -1978,7 +3264,7 @@
       </c>
       <c r="G36" s="14"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>130</v>
       </c>
@@ -2000,7 +3286,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>110</v>
       </c>
@@ -2029,1306 +3315,6 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="91" fitToWidth="0" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5404BEA5-A0E6-40E3-BC5A-D047BFA188D2}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H67"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="54.08984375" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.36328125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" style="41" customWidth="1"/>
-    <col min="6" max="6" width="16.36328125" style="42" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" style="43" customWidth="1"/>
-    <col min="8" max="8" width="32.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="26">
-        <v>15108</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="G2" s="28"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="28"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="28"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="28"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="37"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="35">
-        <v>19111</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="35">
-        <v>19152</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="35">
-        <v>19159</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="G17" s="37"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="G21" s="37"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="37"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="35">
-        <v>19111</v>
-      </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="G26" s="37"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="G27" s="37"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="G28" s="37"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="37"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>164</v>
-      </c>
-      <c r="F32" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="G32" s="37"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" s="37"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="35">
-        <v>19152</v>
-      </c>
-      <c r="F34" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="37"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="28"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="28"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="F37" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="G37" s="37"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="F38" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="G38" s="37"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="28"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G41" s="37"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" s="37"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="F43" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="G43" s="37"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" s="37"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="F45" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="G45" s="37"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="G46" s="28"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A47" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="B47" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="D47" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="F47" s="36"/>
-      <c r="G47" s="37"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="F48" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="G48" s="37"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A49" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" s="35">
-        <v>19152</v>
-      </c>
-      <c r="F49" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="G49" s="37"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A50" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="G50" s="37"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A51" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="D51" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="F51" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="G51" s="37"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A52" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F52" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="G52" s="37"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A53" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B53" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E53" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F53" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="G53" s="37"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A54" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="F54" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="G54" s="37"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A55" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="B55" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="C55" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="35">
-        <v>19115</v>
-      </c>
-      <c r="F55" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="G55" s="37"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A56" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="G56" s="37"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A57" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="B57" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="C57" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="D57" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="F57" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="G57" s="37"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A58" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="B58" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C58" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="D58" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="F58" s="36"/>
-      <c r="G58" s="37"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A59" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="28"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A60" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="B60" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="C60" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" s="35">
-        <v>19135</v>
-      </c>
-      <c r="F60" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="G60" s="37"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A61" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="C61" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="F61" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="G61" s="28"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A62" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="G62" s="28"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A63" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F63" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="G63" s="28"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A64" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="28"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A65" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C65" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F65" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="G65" s="28"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A66" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="F66" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="G66" s="28"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A67" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B67" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="C67" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D67" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="F67" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="G67" s="28"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G67" xr:uid="{5404BEA5-A0E6-40E3-BC5A-D047BFA188D2}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G67">
-      <sortCondition ref="A1:A66"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="41" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
